--- a/biology/Médecine/Lansoprazole/Lansoprazole.xlsx
+++ b/biology/Médecine/Lansoprazole/Lansoprazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lansoprazole est un antisécrétoire gastrique inhibiteur de la pompe à protons.
@@ -512,9 +524,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lansoprazole, comme inhibiteur de la pompe à protons (IPP), est indiqué pour le reflux gastro-œsophagien symptomatique, l’œsophagite peptique de reflux, les ulcères gastriques et duodénaux, les ulcères peptiques secondaires à la prise d’anti-inflammatoires non stéroïdiens (AINS), l’éradication d’Helicobacter pylori en association avec des antibiotiques, le syndrome de Zollinger-Ellison et la dyspepsie fonctionnelle acido-dépendante[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lansoprazole, comme inhibiteur de la pompe à protons (IPP), est indiqué pour le reflux gastro-œsophagien symptomatique, l’œsophagite peptique de reflux, les ulcères gastriques et duodénaux, les ulcères peptiques secondaires à la prise d’anti-inflammatoires non stéroïdiens (AINS), l’éradication d’Helicobacter pylori en association avec des antibiotiques, le syndrome de Zollinger-Ellison et la dyspepsie fonctionnelle acido-dépendante.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Contre-indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec l'atazanavir, il convient de diminuer l'absorption de ce dernier.
 </t>
@@ -574,10 +590,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au dosage de 30 mg, le lansoprazole atteint une inhibition de sécrétion de l'acide gastrique de 80 % après la première prise du médicament par voie orale. L'efficacité atteint 90 % après sept jours à ce même dosage[3].
-Début juillet 2015, des chercheurs du laboratoire du professeur Stewart Cole de l'École polytechnique fédérale de Lausanne (EPFL) signalent avoir identifié l'antiacide lanzoprazole (après avoir testé par un système robotisé des milliers de médicaments agréés) comme pouvant servir de traitement antituberculeux (M. tuberculosis)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au dosage de 30 mg, le lansoprazole atteint une inhibition de sécrétion de l'acide gastrique de 80 % après la première prise du médicament par voie orale. L'efficacité atteint 90 % après sept jours à ce même dosage.
+Début juillet 2015, des chercheurs du laboratoire du professeur Stewart Cole de l'École polytechnique fédérale de Lausanne (EPFL) signalent avoir identifié l'antiacide lanzoprazole (après avoir testé par un système robotisé des milliers de médicaments agréés) comme pouvant servir de traitement antituberculeux (M. tuberculosis).
 </t>
         </is>
       </c>
